--- a/new_horaires_fin_df.xlsx
+++ b/new_horaires_fin_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS14"/>
+  <dimension ref="A1:DR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,246 +567,243 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY1" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CZ1" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DA1" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DB1" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DC1" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DD1" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DE1" s="1" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DF1" s="1" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DG1" s="1" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DH1" s="1" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DI1" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DJ1" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DK1" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DL1" s="1" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DM1" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DN1" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DO1" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DP1" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DQ1" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="DR1" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="n">
         <v>121</v>
       </c>
     </row>
@@ -829,19 +826,19 @@
         <v>45504.5625</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45505.5625</v>
+        <v>45299.5625</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45506.5625</v>
+        <v>45330.5625</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45507.5625</v>
+        <v>45359.5625</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45508.47916666666</v>
+        <v>45390.47916666666</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45509.47916666666</v>
+        <v>45420.47916666666</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>45500.6875</v>
@@ -859,34 +856,34 @@
         <v>45504.77083333334</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>45505.77083333334</v>
+        <v>45299.77083333334</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>45506.77083333334</v>
+        <v>45330.77083333334</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>45507.8125</v>
+        <v>45359.8125</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>45508.64583333334</v>
+        <v>45390.64583333334</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>45509.64583333334</v>
+        <v>45420.64583333334</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>45500.85416666666</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>45508.8125</v>
+        <v>45390.8125</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>45509.8125</v>
+        <v>45420.8125</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>45510.8125</v>
+        <v>45451.8125</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45511.8125</v>
+        <v>45481.8125</v>
       </c>
       <c r="Z2" s="2" t="n">
         <v>45512.8125</v>
@@ -907,34 +904,34 @@
         <v>45504.97916666666</v>
       </c>
       <c r="AF2" s="2" t="n">
-        <v>45505.97916666666</v>
+        <v>45299.97916666666</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>45506.97916666666</v>
+        <v>45330.97916666666</v>
       </c>
       <c r="AH2" s="2" t="n">
-        <v>45507.02083333334</v>
+        <v>45359.02083333334</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>45508.97916666666</v>
+        <v>45390.97916666666</v>
       </c>
       <c r="AJ2" s="2" t="n">
-        <v>45509.97916666666</v>
+        <v>45420.97916666666</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>45510.97916666666</v>
+        <v>45451.97916666666</v>
       </c>
       <c r="AL2" s="2" t="n">
-        <v>45511.97916666666</v>
+        <v>45481.97916666666</v>
       </c>
       <c r="AM2" s="2" t="n">
         <v>45512.97916666666</v>
       </c>
       <c r="AN2" s="2" t="n">
-        <v>45513.02083333334</v>
+        <v>45543.02083333334</v>
       </c>
       <c r="AO2" s="2" t="n">
-        <v>45514.02083333334</v>
+        <v>45573.02083333334</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -1017,7 +1014,6 @@
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr"/>
       <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1041,13 +1037,13 @@
         <v>45504.60416666666</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45505.60416666666</v>
+        <v>45299.60416666666</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45506.60416666666</v>
+        <v>45330.60416666666</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45507.60416666666</v>
+        <v>45359.60416666666</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>45500.8125</v>
@@ -1065,52 +1061,52 @@
         <v>45504.8125</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45505.8125</v>
+        <v>45299.8125</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>45506.8125</v>
+        <v>45330.8125</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>45507.8125</v>
+        <v>45359.8125</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>45509.72916666666</v>
+        <v>45420.72916666666</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>45510.58333333334</v>
+        <v>45451.58333333334</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>45511.58333333334</v>
+        <v>45481.58333333334</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>45512.58333333334</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>45513.58333333334</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>45514.58333333334</v>
+        <v>45573.58333333334</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>45515.625</v>
+        <v>45604.625</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>45509.9375</v>
+        <v>45420.9375</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>45510.9375</v>
+        <v>45451.9375</v>
       </c>
       <c r="AA3" s="2" t="n">
-        <v>45511.9375</v>
+        <v>45481.9375</v>
       </c>
       <c r="AB3" s="2" t="n">
         <v>45512.9375</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>45513.9375</v>
+        <v>45543.9375</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>45514.9375</v>
+        <v>45573.9375</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
@@ -1204,7 +1200,6 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr"/>
       <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1228,16 +1223,16 @@
         <v>45504.75</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45505.73611111111</v>
+        <v>45299.73611111111</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45506.75</v>
+        <v>45330.75</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45507.72916666666</v>
+        <v>45359.72916666666</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45508.73611111111</v>
+        <v>45390.73611111111</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>45500.97222222222</v>
@@ -1255,52 +1250,52 @@
         <v>45504.92361111111</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>45505.9375</v>
+        <v>45299.9375</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45506.92361111111</v>
+        <v>45330.92361111111</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>45507.90277777778</v>
+        <v>45359.90277777778</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>45508.9375</v>
+        <v>45390.9375</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>45511.54166666666</v>
+        <v>45481.54166666666</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>45512.54166666666</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>45513.54166666666</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>45514.54166666666</v>
+        <v>45573.54166666666</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>45511.75</v>
+        <v>45481.75</v>
       </c>
       <c r="Y4" s="2" t="n">
         <v>45512.75</v>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45513.75</v>
+        <v>45543.75</v>
       </c>
       <c r="AA4" s="2" t="n">
-        <v>45514.75</v>
+        <v>45573.75</v>
       </c>
       <c r="AB4" s="2" t="n">
-        <v>45511.97916666666</v>
+        <v>45481.97916666666</v>
       </c>
       <c r="AC4" s="2" t="n">
         <v>45512.97916666666</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>45513.97916666666</v>
+        <v>45543.97916666666</v>
       </c>
       <c r="AE4" s="2" t="n">
-        <v>45514.97916666666</v>
+        <v>45573.97916666666</v>
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -1393,7 +1388,6 @@
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr"/>
       <c r="DR4" t="inlineStr"/>
-      <c r="DS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1417,16 +1411,16 @@
         <v>45504.68402777778</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45505.57986111111</v>
+        <v>45299.57986111111</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45506.52430555555</v>
+        <v>45330.52430555555</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45507.48958333334</v>
+        <v>45359.48958333334</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45508.48958333334</v>
+        <v>45390.48958333334</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>45498.73958333334</v>
@@ -1444,16 +1438,16 @@
         <v>45504.87152777778</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>45505.82986111111</v>
+        <v>45299.82986111111</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45506.74652777778</v>
+        <v>45330.74652777778</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>45507.65972222222</v>
+        <v>45359.65972222222</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>45508.65972222222</v>
+        <v>45390.65972222222</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1558,7 +1552,6 @@
       <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr"/>
       <c r="DR5" t="inlineStr"/>
-      <c r="DS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1573,13 +1566,13 @@
         <v>45504.46527777778</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45509.44444444445</v>
+        <v>45420.44444444445</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>45512.45833333334</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45513.45833333334</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -1697,7 +1690,6 @@
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr"/>
       <c r="DR6" t="inlineStr"/>
-      <c r="DS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1706,13 +1698,13 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45505.51041666666</v>
+        <v>45299.51041666666</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45507.78125</v>
+        <v>45359.78125</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45508.80208333334</v>
+        <v>45390.80208333334</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1832,7 +1824,6 @@
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr"/>
       <c r="DR7" t="inlineStr"/>
-      <c r="DS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1841,13 +1832,13 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45505.47916666666</v>
+        <v>45299.47916666666</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45506.47916666666</v>
+        <v>45330.47916666666</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45505.625</v>
+        <v>45299.625</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>45503.83333333334</v>
@@ -1856,19 +1847,19 @@
         <v>45504.83333333334</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45505.85416666666</v>
+        <v>45299.85416666666</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45506.83333333334</v>
+        <v>45330.83333333334</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45507.83333333334</v>
+        <v>45359.83333333334</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45508.83333333334</v>
+        <v>45390.83333333334</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45509.83333333334</v>
+        <v>45420.83333333334</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>45503.97916666666</v>
@@ -1877,28 +1868,28 @@
         <v>45504.97916666666</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>45506</v>
+        <v>45300</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45506.97916666666</v>
+        <v>45330.97916666666</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>45507.95833333334</v>
+        <v>45359.95833333334</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>45508.95833333334</v>
+        <v>45390.95833333334</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>45509.99305555555</v>
+        <v>45420.99305555555</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>45513.77083333334</v>
+        <v>45543.77083333334</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>45513.9375</v>
+        <v>45543.9375</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>45514.9375</v>
+        <v>45573.9375</v>
       </c>
       <c r="V8" s="2" t="n">
         <v>45503.70833333334</v>
@@ -1919,10 +1910,10 @@
         <v>45501.8125</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>45510.6875</v>
+        <v>45451.6875</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>45511.6875</v>
+        <v>45481.6875</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
@@ -2017,7 +2008,6 @@
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="inlineStr"/>
       <c r="DR8" t="inlineStr"/>
-      <c r="DS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2026,10 +2016,10 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45510.8125</v>
+        <v>45451.8125</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45511.8125</v>
+        <v>45481.8125</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>45500.72916666666</v>
@@ -2047,13 +2037,13 @@
         <v>45504.72916666666</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45505.72916666666</v>
+        <v>45299.72916666666</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45506.72916666666</v>
+        <v>45330.72916666666</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45507.8125</v>
+        <v>45359.8125</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>45500.97916666666</v>
@@ -2071,10 +2061,10 @@
         <v>45504.97916666666</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>45505.97916666666</v>
+        <v>45299.97916666666</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>45507</v>
+        <v>45331</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>45500.8125</v>
@@ -2092,10 +2082,10 @@
         <v>45504.8125</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>45505.8125</v>
+        <v>45299.8125</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>45506.72916666666</v>
+        <v>45330.72916666666</v>
       </c>
       <c r="Z9" s="2" t="n">
         <v>45500.8125</v>
@@ -2113,7 +2103,7 @@
         <v>45504.8125</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>45505.8125</v>
+        <v>45299.8125</v>
       </c>
       <c r="AF9" s="2" t="n">
         <v>45500.8125</v>
@@ -2216,7 +2206,6 @@
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr"/>
       <c r="DR9" t="inlineStr"/>
-      <c r="DS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2225,19 +2214,19 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45511</v>
+        <v>45452</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45512</v>
+        <v>45482</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>45513</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45514</v>
+        <v>45544</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45515</v>
+        <v>45574</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>45500.5</v>
@@ -2255,22 +2244,22 @@
         <v>45504.5</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>45505.5</v>
+        <v>45299.5</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>45506.5</v>
+        <v>45330.5</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>45507.5</v>
+        <v>45359.5</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45508.5</v>
+        <v>45390.5</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>45509.5</v>
+        <v>45420.5</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>45510.5</v>
+        <v>45451.5</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>45500.66666666666</v>
@@ -2288,22 +2277,22 @@
         <v>45504.66666666666</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>45505.66666666666</v>
+        <v>45299.66666666666</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>45506.66666666666</v>
+        <v>45330.66666666666</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>45507.66666666666</v>
+        <v>45359.66666666666</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>45508.66666666666</v>
+        <v>45390.66666666666</v>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>45509.66666666666</v>
+        <v>45420.66666666666</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>45510.66666666666</v>
+        <v>45451.66666666666</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" s="2" t="n">
@@ -2322,269 +2311,268 @@
         <v>45504.83333333334</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>45505.83333333334</v>
+        <v>45299.83333333334</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>45506.83333333334</v>
+        <v>45330.83333333334</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>45507.83333333334</v>
+        <v>45359.83333333334</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>45508.83333333334</v>
+        <v>45390.83333333334</v>
       </c>
       <c r="AM10" s="2" t="n">
-        <v>45509.83333333334</v>
+        <v>45420.83333333334</v>
       </c>
       <c r="AN10" s="2" t="n">
-        <v>45510.83333333334</v>
+        <v>45451.83333333334</v>
       </c>
       <c r="AO10" s="2" t="n">
-        <v>45511.79166666666</v>
+        <v>45481.79166666666</v>
       </c>
       <c r="AP10" s="2" t="n">
         <v>45512.79166666666</v>
       </c>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AQ10" s="2" t="n">
+        <v>45501</v>
+      </c>
       <c r="AR10" s="2" t="n">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="AS10" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="AT10" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="AU10" s="2" t="n">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>45505</v>
+        <v>45300</v>
       </c>
       <c r="AW10" s="2" t="n">
-        <v>45506</v>
+        <v>45331</v>
       </c>
       <c r="AX10" s="2" t="n">
-        <v>45507</v>
+        <v>45360</v>
       </c>
       <c r="AY10" s="2" t="n">
-        <v>45508</v>
+        <v>45391</v>
       </c>
       <c r="AZ10" s="2" t="n">
-        <v>45509</v>
+        <v>45421</v>
       </c>
       <c r="BA10" s="2" t="n">
-        <v>45510</v>
+        <v>45452</v>
       </c>
       <c r="BB10" s="2" t="n">
-        <v>45511</v>
+        <v>45481.95833333334</v>
       </c>
       <c r="BC10" s="2" t="n">
-        <v>45511.95833333334</v>
+        <v>45512.95833333334</v>
       </c>
       <c r="BD10" s="2" t="n">
-        <v>45512.95833333334</v>
+        <v>45501.60416666666</v>
       </c>
       <c r="BE10" s="2" t="n">
-        <v>45501.60416666666</v>
+        <v>45502.60416666666</v>
       </c>
       <c r="BF10" s="2" t="n">
-        <v>45502.60416666666</v>
+        <v>45503.52083333334</v>
       </c>
       <c r="BG10" s="2" t="n">
-        <v>45503.52083333334</v>
+        <v>45504.5625</v>
       </c>
       <c r="BH10" s="2" t="n">
-        <v>45504.5625</v>
+        <v>45299.5625</v>
       </c>
       <c r="BI10" s="2" t="n">
-        <v>45505.5625</v>
+        <v>45330.52083333334</v>
       </c>
       <c r="BJ10" s="2" t="n">
-        <v>45506.52083333334</v>
+        <v>45420.5625</v>
       </c>
       <c r="BK10" s="2" t="n">
-        <v>45509.5625</v>
+        <v>45451.5625</v>
       </c>
       <c r="BL10" s="2" t="n">
-        <v>45510.5625</v>
+        <v>45481.5625</v>
       </c>
       <c r="BM10" s="2" t="n">
-        <v>45511.5625</v>
+        <v>45512.5625</v>
       </c>
       <c r="BN10" s="2" t="n">
-        <v>45512.5625</v>
+        <v>45543.5625</v>
       </c>
       <c r="BO10" s="2" t="n">
-        <v>45513.5625</v>
+        <v>45573.5625</v>
       </c>
       <c r="BP10" s="2" t="n">
-        <v>45514.5625</v>
+        <v>45500.77083333334</v>
       </c>
       <c r="BQ10" s="2" t="n">
-        <v>45500.77083333334</v>
+        <v>45501.77083333334</v>
       </c>
       <c r="BR10" s="2" t="n">
-        <v>45501.77083333334</v>
+        <v>45502.77083333334</v>
       </c>
       <c r="BS10" s="2" t="n">
-        <v>45502.77083333334</v>
+        <v>45503.6875</v>
       </c>
       <c r="BT10" s="2" t="n">
-        <v>45503.6875</v>
+        <v>45504.77083333334</v>
       </c>
       <c r="BU10" s="2" t="n">
-        <v>45504.77083333334</v>
+        <v>45299.77083333334</v>
       </c>
       <c r="BV10" s="2" t="n">
-        <v>45505.77083333334</v>
+        <v>45330.66666666666</v>
       </c>
       <c r="BW10" s="2" t="n">
-        <v>45506.66666666666</v>
+        <v>45359.6875</v>
       </c>
       <c r="BX10" s="2" t="n">
-        <v>45507.6875</v>
+        <v>45390.6875</v>
       </c>
       <c r="BY10" s="2" t="n">
-        <v>45508.6875</v>
+        <v>45420.77083333334</v>
       </c>
       <c r="BZ10" s="2" t="n">
-        <v>45509.77083333334</v>
+        <v>45451.77083333334</v>
       </c>
       <c r="CA10" s="2" t="n">
-        <v>45510.77083333334</v>
+        <v>45481.77083333334</v>
       </c>
       <c r="CB10" s="2" t="n">
-        <v>45511.77083333334</v>
+        <v>45512.77083333334</v>
       </c>
       <c r="CC10" s="2" t="n">
-        <v>45512.77083333334</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="CD10" s="2" t="n">
-        <v>45513.79166666666</v>
+        <v>45573.79166666666</v>
       </c>
       <c r="CE10" s="2" t="n">
-        <v>45514.79166666666</v>
+        <v>45498.54166666666</v>
       </c>
       <c r="CF10" s="2" t="n">
-        <v>45498.54166666666</v>
+        <v>45500.54166666666</v>
       </c>
       <c r="CG10" s="2" t="n">
-        <v>45500.54166666666</v>
+        <v>45501.54166666666</v>
       </c>
       <c r="CH10" s="2" t="n">
-        <v>45501.54166666666</v>
+        <v>45502.54166666666</v>
       </c>
       <c r="CI10" s="2" t="n">
-        <v>45502.54166666666</v>
+        <v>45503.54166666666</v>
       </c>
       <c r="CJ10" s="2" t="n">
-        <v>45503.54166666666</v>
+        <v>45504.54166666666</v>
       </c>
       <c r="CK10" s="2" t="n">
-        <v>45504.54166666666</v>
+        <v>45299.54166666666</v>
       </c>
       <c r="CL10" s="2" t="n">
-        <v>45505.54166666666</v>
+        <v>45330.54166666666</v>
       </c>
       <c r="CM10" s="2" t="n">
-        <v>45506.54166666666</v>
+        <v>45359.54166666666</v>
       </c>
       <c r="CN10" s="2" t="n">
-        <v>45507.54166666666</v>
+        <v>45390.54166666666</v>
       </c>
       <c r="CO10" s="2" t="n">
-        <v>45508.54166666666</v>
+        <v>45498.75</v>
       </c>
       <c r="CP10" s="2" t="n">
-        <v>45498.75</v>
+        <v>45500.75</v>
       </c>
       <c r="CQ10" s="2" t="n">
-        <v>45500.75</v>
+        <v>45501.75</v>
       </c>
       <c r="CR10" s="2" t="n">
-        <v>45501.75</v>
+        <v>45502.75</v>
       </c>
       <c r="CS10" s="2" t="n">
-        <v>45502.75</v>
+        <v>45503.75</v>
       </c>
       <c r="CT10" s="2" t="n">
-        <v>45503.75</v>
+        <v>45504.75</v>
       </c>
       <c r="CU10" s="2" t="n">
-        <v>45504.75</v>
+        <v>45299.75</v>
       </c>
       <c r="CV10" s="2" t="n">
-        <v>45505.75</v>
+        <v>45330.75</v>
       </c>
       <c r="CW10" s="2" t="n">
-        <v>45506.75</v>
+        <v>45359.75</v>
       </c>
       <c r="CX10" s="2" t="n">
-        <v>45507.75</v>
+        <v>45390.75</v>
       </c>
       <c r="CY10" s="2" t="n">
-        <v>45508.75</v>
+        <v>45498.95833333334</v>
       </c>
       <c r="CZ10" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45500.95833333334</v>
       </c>
       <c r="DA10" s="2" t="n">
-        <v>45500.95833333334</v>
+        <v>45501.95833333334</v>
       </c>
       <c r="DB10" s="2" t="n">
-        <v>45501.95833333334</v>
+        <v>45502.95833333334</v>
       </c>
       <c r="DC10" s="2" t="n">
-        <v>45502.95833333334</v>
+        <v>45503.95833333334</v>
       </c>
       <c r="DD10" s="2" t="n">
-        <v>45503.95833333334</v>
+        <v>45504.95833333334</v>
       </c>
       <c r="DE10" s="2" t="n">
-        <v>45504.95833333334</v>
+        <v>45299.95833333334</v>
       </c>
       <c r="DF10" s="2" t="n">
-        <v>45505.95833333334</v>
+        <v>45330.95833333334</v>
       </c>
       <c r="DG10" s="2" t="n">
-        <v>45506.95833333334</v>
+        <v>45359.95833333334</v>
       </c>
       <c r="DH10" s="2" t="n">
-        <v>45507.95833333334</v>
+        <v>45390.95833333334</v>
       </c>
       <c r="DI10" s="2" t="n">
-        <v>45508.95833333334</v>
+        <v>45573.60416666666</v>
       </c>
       <c r="DJ10" s="2" t="n">
-        <v>45514.60416666666</v>
+        <v>45604.60416666666</v>
       </c>
       <c r="DK10" s="2" t="n">
-        <v>45515.60416666666</v>
+        <v>45481.75</v>
       </c>
       <c r="DL10" s="2" t="n">
-        <v>45511.75</v>
+        <v>45512.75</v>
       </c>
       <c r="DM10" s="2" t="n">
-        <v>45512.75</v>
+        <v>45543.75</v>
       </c>
       <c r="DN10" s="2" t="n">
-        <v>45513.75</v>
+        <v>45573.79166666666</v>
       </c>
       <c r="DO10" s="2" t="n">
-        <v>45514.79166666666</v>
+        <v>45481.9375</v>
       </c>
       <c r="DP10" s="2" t="n">
-        <v>45511.9375</v>
+        <v>45512.9375</v>
       </c>
       <c r="DQ10" s="2" t="n">
-        <v>45512.9375</v>
+        <v>45543.9375</v>
       </c>
       <c r="DR10" s="2" t="n">
-        <v>45513.9375</v>
-      </c>
-      <c r="DS10" s="2" t="n">
-        <v>45514.97916666666</v>
+        <v>45573.97916666666</v>
       </c>
     </row>
     <row r="11">
@@ -2603,7 +2591,7 @@
         <v>45501.70833333334</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45509.65625</v>
+        <v>45420.65625</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45500.77083333334</v>
@@ -2612,10 +2600,10 @@
         <v>45501.84027777778</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45507.77083333334</v>
+        <v>45359.77083333334</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45508.74652777778</v>
+        <v>45390.74652777778</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>45500.95833333334</v>
@@ -2633,61 +2621,61 @@
         <v>45504.86458333334</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45505.87152777778</v>
+        <v>45299.87152777778</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>45506.625</v>
+        <v>45330.625</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>45506.875</v>
+        <v>45330.875</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>45510.5625</v>
+        <v>45451.5625</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>45511.5625</v>
+        <v>45481.5625</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>45510.70833333334</v>
+        <v>45451.70833333334</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>45511.70833333334</v>
+        <v>45481.70833333334</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>45514.5625</v>
+        <v>45573.5625</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>45515.58333333334</v>
+        <v>45604.58333333334</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>45510.85416666666</v>
+        <v>45451.85416666666</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>45511.85416666666</v>
+        <v>45481.85416666666</v>
       </c>
       <c r="Z11" s="2" t="n">
         <v>45512.83333333334</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>45513.83333333334</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>45515.77083333334</v>
+        <v>45604.77083333334</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>45511</v>
+        <v>45452</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>45512</v>
+        <v>45482</v>
       </c>
       <c r="AE11" s="2" t="n">
         <v>45512.97916666666</v>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>45513.97916666666</v>
+        <v>45543.97916666666</v>
       </c>
       <c r="AG11" s="2" t="n">
-        <v>45514.02083333334</v>
+        <v>45573.02083333334</v>
       </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
@@ -2778,7 +2766,6 @@
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr"/>
       <c r="DR11" t="inlineStr"/>
-      <c r="DS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2802,19 +2789,19 @@
         <v>45504.52083333334</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45505.47916666666</v>
+        <v>45299.47916666666</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45506.5625</v>
+        <v>45330.5625</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45507.5625</v>
+        <v>45359.5625</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45508.5625</v>
+        <v>45390.5625</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45509.54166666666</v>
+        <v>45420.54166666666</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>45500.75</v>
@@ -2832,19 +2819,19 @@
         <v>45504.75</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>45505.70833333334</v>
+        <v>45299.70833333334</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>45506.95833333334</v>
+        <v>45330.95833333334</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>45507.75</v>
+        <v>45359.75</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>45508.75</v>
+        <v>45390.75</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45509.75</v>
+        <v>45420.75</v>
       </c>
       <c r="V12" s="2" t="n">
         <v>45500.97916666666</v>
@@ -2865,16 +2852,16 @@
         <v>45512.5625</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>45513.54166666666</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>45514.67708333334</v>
+        <v>45573.67708333334</v>
       </c>
       <c r="AD12" s="2" t="n">
         <v>45512.77083333334</v>
       </c>
       <c r="AE12" s="2" t="n">
-        <v>45513.72916666666</v>
+        <v>45543.72916666666</v>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
@@ -2967,7 +2954,6 @@
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr"/>
       <c r="DR12" t="inlineStr"/>
-      <c r="DS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2991,13 +2977,13 @@
         <v>45504.5625</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45505.5625</v>
+        <v>45299.5625</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45506.5625</v>
+        <v>45330.5625</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>45507.5625</v>
+        <v>45359.5625</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>45500.95833333334</v>
@@ -3015,43 +3001,43 @@
         <v>45504.95833333334</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45505.95833333334</v>
+        <v>45299.95833333334</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>45506.95833333334</v>
+        <v>45330.95833333334</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>45507.95833333334</v>
+        <v>45359.95833333334</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>45508.875</v>
+        <v>45390.875</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>45514.52083333334</v>
+        <v>45573.52083333334</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>45515.52083333334</v>
+        <v>45604.52083333334</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>45509.70833333334</v>
+        <v>45420.70833333334</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>45510.72916666666</v>
+        <v>45451.72916666666</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>45511.72916666666</v>
+        <v>45481.72916666666</v>
       </c>
       <c r="X13" s="2" t="n">
         <v>45512.6875</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>45513.6875</v>
+        <v>45543.6875</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>45514.89583333334</v>
+        <v>45573.89583333334</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>45515.68055555555</v>
+        <v>45604.68055555555</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -3148,7 +3134,6 @@
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr"/>
       <c r="DR13" t="inlineStr"/>
-      <c r="DS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3157,55 +3142,55 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45506.5625</v>
+        <v>45330.5625</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45507.6875</v>
+        <v>45359.6875</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45508.5625</v>
+        <v>45390.5625</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45509.5625</v>
+        <v>45420.5625</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45510.5625</v>
+        <v>45451.5625</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45511.5625</v>
+        <v>45481.5625</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>45512.5625</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>45513.5625</v>
+        <v>45543.5625</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45506.9375</v>
+        <v>45330.9375</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45507.9375</v>
+        <v>45359.9375</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>45508.9375</v>
+        <v>45390.9375</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>45509.9375</v>
+        <v>45420.9375</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>45510.9375</v>
+        <v>45451.9375</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45511.9375</v>
+        <v>45481.9375</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>45512.9375</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>45513.9375</v>
+        <v>45543.9375</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>45514.9375</v>
+        <v>45573.9375</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>45497.9375</v>
@@ -3327,7 +3312,6 @@
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr"/>
       <c r="DR14" t="inlineStr"/>
-      <c r="DS14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
